--- a/Table X - Nutricline:MLD/Nutricline-MLD.xlsx
+++ b/Table X - Nutricline:MLD/Nutricline-MLD.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25700" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25880" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Cruise</t>
   </si>
@@ -64,13 +65,142 @@
   </si>
   <si>
     <t>Diatoms (ng/m-3)</t>
+  </si>
+  <si>
+    <t>TC0004</t>
+  </si>
+  <si>
+    <t>MLD (m)</t>
+  </si>
+  <si>
+    <t>Depth 15°C (m)</t>
+  </si>
+  <si>
+    <t>DCM (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 2. Indicators including the Nutricline (1 µM NO2+NO3), Mixed Layer Depth (m), the depth of the 15°C isotherm (m), and the integrated chl-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value from the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in-situ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fluorometer from 10-200m (mg m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) for all transects averaged over 32°-33°N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Int Chl-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mg m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +224,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,8 +279,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -120,17 +380,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,11 +547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119210584"/>
-        <c:axId val="-2119645480"/>
+        <c:axId val="-2108355352"/>
+        <c:axId val="-2134258808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119210584"/>
+        <c:axId val="-2108355352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -285,11 +570,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Nutricline (1 </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>µM</a:t>
+                  <a:t>Nutricline (1 µM</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -306,12 +587,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119645480"/>
+        <c:crossAx val="-2134258808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119645480"/>
+        <c:axId val="-2134258808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119210584"/>
+        <c:crossAx val="-2108355352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -446,11 +727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2119530216"/>
-        <c:axId val="-2119527944"/>
+        <c:axId val="-2108019560"/>
+        <c:axId val="-2108016552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2119530216"/>
+        <c:axId val="-2108019560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119527944"/>
+        <c:crossAx val="-2108016552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -467,7 +748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119527944"/>
+        <c:axId val="-2108016552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119530216"/>
+        <c:crossAx val="-2108019560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -601,11 +882,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114749192"/>
-        <c:axId val="-2114712360"/>
+        <c:axId val="-2134617112"/>
+        <c:axId val="-2134179480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114749192"/>
+        <c:axId val="-2134617112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114712360"/>
+        <c:crossAx val="-2134179480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114712360"/>
+        <c:axId val="-2134179480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114749192"/>
+        <c:crossAx val="-2134617112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1071,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1201,4 +1482,295 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41.808756000000002</v>
+      </c>
+      <c r="C4" s="5">
+        <v>38.299379999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>42.891060000000003</v>
+      </c>
+      <c r="E4" s="5">
+        <v>69.517387999999997</v>
+      </c>
+      <c r="F4" s="6">
+        <v>33.415095000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>86.306306000000006</v>
+      </c>
+      <c r="C5" s="5">
+        <v>28.950901000000002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>98.812477000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>87.389474000000007</v>
+      </c>
+      <c r="F5" s="6">
+        <v>28.698871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>106.784712</v>
+      </c>
+      <c r="C6" s="5">
+        <v>26.087309999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>126.632471</v>
+      </c>
+      <c r="E6" s="5">
+        <v>117.17282</v>
+      </c>
+      <c r="F6" s="6">
+        <v>29.725396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>86.775431999999995</v>
+      </c>
+      <c r="C7" s="5">
+        <v>33.810867000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <v>116.133245</v>
+      </c>
+      <c r="E7" s="5">
+        <v>66.538556</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20.416257999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>102.58216</v>
+      </c>
+      <c r="C8" s="5">
+        <v>94.491940999999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>120.200975</v>
+      </c>
+      <c r="E8" s="5">
+        <v>87.389474000000007</v>
+      </c>
+      <c r="F8" s="6">
+        <v>24.272943000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>86.919090999999995</v>
+      </c>
+      <c r="C9" s="8">
+        <v>56.227001000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>111.853056</v>
+      </c>
+      <c r="E9" s="8">
+        <v>49.657685999999998</v>
+      </c>
+      <c r="F9" s="9">
+        <v>36.500247000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14">
+        <v>41.808756000000002</v>
+      </c>
+      <c r="C14">
+        <v>38.298959000000004</v>
+      </c>
+      <c r="D14">
+        <v>42.890827999999999</v>
+      </c>
+      <c r="E14">
+        <v>69.517387999999997</v>
+      </c>
+      <c r="F14">
+        <v>33.415095000000001</v>
+      </c>
+      <c r="G14">
+        <v>-2.5066359999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15">
+        <v>86.306306000000006</v>
+      </c>
+      <c r="C15">
+        <v>28.952864000000002</v>
+      </c>
+      <c r="D15">
+        <v>98.817806000000004</v>
+      </c>
+      <c r="E15">
+        <v>87.389474000000007</v>
+      </c>
+      <c r="F15">
+        <v>28.698871</v>
+      </c>
+      <c r="G15">
+        <v>-5.8480780000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16">
+        <v>106.784712</v>
+      </c>
+      <c r="C16">
+        <v>26.089867999999999</v>
+      </c>
+      <c r="D16">
+        <v>126.618253</v>
+      </c>
+      <c r="E16">
+        <v>117.17282</v>
+      </c>
+      <c r="F16">
+        <v>29.725396</v>
+      </c>
+      <c r="G16">
+        <v>-4.685492</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>86.775431999999995</v>
+      </c>
+      <c r="C17">
+        <v>33.822654999999997</v>
+      </c>
+      <c r="D17">
+        <v>116.12752399999999</v>
+      </c>
+      <c r="E17">
+        <v>66.538556</v>
+      </c>
+      <c r="F17">
+        <v>20.416257999999999</v>
+      </c>
+      <c r="G17">
+        <v>-3.4272779999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>102.58216</v>
+      </c>
+      <c r="C18">
+        <v>94.486469999999997</v>
+      </c>
+      <c r="D18">
+        <v>120.199504</v>
+      </c>
+      <c r="E18">
+        <v>87.389474000000007</v>
+      </c>
+      <c r="F18">
+        <v>24.272943000000001</v>
+      </c>
+      <c r="G18">
+        <v>-3.1709200000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>86.919090999999995</v>
+      </c>
+      <c r="C19">
+        <v>56.286771000000002</v>
+      </c>
+      <c r="D19">
+        <v>111.85953000000001</v>
+      </c>
+      <c r="E19">
+        <v>49.657685999999998</v>
+      </c>
+      <c r="F19">
+        <v>36.500247000000002</v>
+      </c>
+      <c r="G19">
+        <v>-2.9805470000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>